--- a/dataset/result/tiedK.xlsx
+++ b/dataset/result/tiedK.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvlaxjh/code/CBFL/dataset/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6A33B-AB3F-314E-8781-4D13A1E9150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED72B85E-8A2B-704D-A5EA-F23A32E49A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="34">
   <si>
     <t>project</t>
   </si>
@@ -118,12 +119,24 @@
   <si>
     <t>平均值项:f1</t>
   </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +151,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,11 +176,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,6 +202,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5162,7 +5208,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C680BC9-B897-F14C-8B8E-267546152004}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C680BC9-B897-F14C-8B8E-267546152004}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -13405,7 +13451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C02E7B-D344-F241-BD3D-715A19E10895}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
@@ -14358,4 +14406,941 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBD427E-67C3-3248-9FF7-DDD0D38EADAA}">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3.2657926281919346E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.73794179587165964</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.0780104552663819E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3.2963617610308658E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.63817001706754817</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6.0028205739696285E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.9009720248197509E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.64285115303983231</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.9289682152809035E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.6917514972419808E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.63348888109526413</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.0766729326583528E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3.3533231819044204E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.8126704288674883</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6.2702772779309399E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.9924948808689013E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.78679245283018873</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.3658154990578872E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2.7141514829399381E-2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.83854840490478788</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5.1747390568039932E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3.2266179122123394E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.77482960043429217</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6.0711492268255028E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.8294886582957419E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79036026989412123</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.1549126302638016E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.6237471661289362E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.75929893097446288</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.987385823387204E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3.1868676576201141E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.72609713711730983</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5.9677947423394641E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.8199769192370329E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.742240191674154</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.0824290490973579E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.5537583960031952E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.70995408256046555</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.8531604355815702E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2.7442061678425334E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.35512509318362595</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4.7580540781652664E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2.6388294399151933E-2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.10936692973826656</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3.8899049101278296E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.9676927965309706E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.15568733153638814</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.9611246601070844E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.3099660832994168E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.3046527940144967E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.8186851601485752E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2.755583479165637E-2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.38653876289988359</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4.9953787328873359E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.5621188592522959E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.41272061025668128</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6.388144536203029E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.9490480990789778E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.3603569155430858</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.6026129295716414E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2.8001013092479387E-2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.44200812905271014</v>
+      </c>
+      <c r="D22" s="9">
+        <v>5.0883254331942129E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.5851466108678502E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.44329862762715155</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6.4346197619015499E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.0150560076280279E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.44071763047826878</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.7420311044868759E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2.7823104430413671E-2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.48258655104364367</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5.0586072364516885E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3.3578869020840299E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.44587283970191854</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6.0215509198997277E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2.2067339839987047E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.51930026238536886</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.0956635530036492E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.938201437656222E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.36765536933823645</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5.245509688897744E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2.645265692654385E-2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.21533304641376053</v>
+      </c>
+      <c r="D29" s="9">
+        <v>4.5649602905459954E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3.5938389019768778E-2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.25275972024029736</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.2394096136225395E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.6966924833318926E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.17790637258722369</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.89051096746945E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2.857756144819763E-2</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.29727557557418588</v>
+      </c>
+      <c r="D32" s="10">
+        <v>5.0619932156570312E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3.7886462809811366E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.3252252347479872</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6.7149681550573326E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.92686600865839E-2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.2693259164003845</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3.4090182762567298E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="9">
+        <v>3.1932293714398069E-2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.39398459506294775</v>
+      </c>
+      <c r="D35" s="9">
+        <v>5.732744582245157E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4.1718076019983827E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.42334055634832551</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7.4732334798669781E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2.2146511408812301E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.36462863377756993</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.9922556846233359E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3.0565545417109326E-2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.56402826030205189</v>
+      </c>
+      <c r="D38" s="9">
+        <v>5.6223406671427931E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3.7495675698225248E-2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.51950918732272788</v>
+      </c>
+      <c r="D39" s="3">
+        <v>6.8258335145664525E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11">
+        <v>3</v>
+      </c>
+      <c r="B40" s="13">
+        <v>2.3635415135993411E-2</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.60854733328137578</v>
+      </c>
+      <c r="D40" s="13">
+        <v>4.4188478197191329E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2.577544341985057E-2</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.36231382744903851</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4.1983630267333052E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="9">
+        <v>5.263157894736842E-3</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2.1428571428571429E-2</v>
+      </c>
+      <c r="D42" s="9">
+        <v>8.4507042253521118E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.0526315789473684E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.6901408450704224E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2.7863505864569232E-2</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0.45272838195021292</v>
+      </c>
+      <c r="D45" s="9">
+        <v>4.7368996390431392E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3.7693269306570715E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.4617359899934817</v>
+      </c>
+      <c r="D46" s="3">
+        <v>6.1904230110756339E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.8033742422567743E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.44372077390694409</v>
+      </c>
+      <c r="D47" s="3">
+        <v>3.2833762670106445E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2.865369255670892E-2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.45592182645788865</v>
+      </c>
+      <c r="D48" s="10">
+        <v>4.8715285860590145E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3.8979438606198999E-2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.45647693039479942</v>
+      </c>
+      <c r="D49" s="3">
+        <v>6.398959352514047E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.8327946507218845E-2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.45536672252097787</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3.3440978196039826E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="9">
+        <v>4.1321417363387292E-2</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.51917652995948094</v>
+      </c>
+      <c r="D51" s="9">
+        <v>6.3399534592958579E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.5287256850778912E-2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.5383457533956979</v>
+      </c>
+      <c r="D52" s="3">
+        <v>7.8065184952485642E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.7355577875995667E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.50000730652326397</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4.8733884233431543E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2.9676339506681814E-2</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.38727106194218319</v>
+      </c>
+      <c r="D54" s="7">
+        <v>5.3308264997230528E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="9">
+        <v>3.0664646600881796E-2</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.31210992003158505</v>
+      </c>
+      <c r="D55" s="9">
+        <v>5.4435123769938767E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3.8651782139540014E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.34982611912689604</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6.8940351588493889E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2.2677511062223585E-2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.27439372093627412</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3.9929895951383645E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2.9000554411421346E-2</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.30087259076293132</v>
+      </c>
+      <c r="D58" s="9">
+        <v>5.1438983791695515E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3.7468344076689607E-2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.31908567200465093</v>
+      </c>
+      <c r="D59" s="3">
+        <v>6.6226676567574708E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2.0532764746153086E-2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.2826595095212116</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3.6651291015816337E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="9">
+        <v>3.1297384274470777E-2</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0.40430875141387396</v>
+      </c>
+      <c r="D61" s="9">
+        <v>5.6243761964784734E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3">
+        <v>3.6994049374047835E-2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.43254831492345369</v>
+      </c>
+      <c r="D62" s="3">
+        <v>6.6628889897876825E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2.5600719174893705E-2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.37606918790429428</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4.585863403169263E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2.7742772739953354E-2</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0.53179298556034216</v>
+      </c>
+      <c r="D64" s="9">
+        <v>5.1115190462503138E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3.1702277680583694E-2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.47254831492345362</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5.7855369510232693E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2.3783267799323021E-2</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.59103765619723059</v>
+      </c>
+      <c r="D66" s="3">
+        <v>4.4375011414773589E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>